--- a/Data_preparation/datasets/final_data/INFORMATICA_INC_CLASS_A.xlsx
+++ b/Data_preparation/datasets/final_data/INFORMATICA_INC_CLASS_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,63 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>DOCU</t>
-  </si>
-  <si>
-    <t>ZS</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>CSCO</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>STNE</t>
-  </si>
-  <si>
-    <t>OKTA</t>
-  </si>
-  <si>
-    <t>CAN</t>
-  </si>
-  <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>DXC</t>
-  </si>
-  <si>
-    <t>UI</t>
-  </si>
-  <si>
-    <t>STX</t>
-  </si>
-  <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>AMBA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>PATH</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>NTAP</t>
   </si>
 </sst>
 </file>
@@ -709,22 +652,22 @@
         <v>43830</v>
       </c>
       <c r="D2">
-        <v>74.30999755859375</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="E2">
-        <v>78.51000213623047</v>
+        <v>29.65999984741211</v>
       </c>
       <c r="F2">
-        <v>80.26000213623047</v>
+        <v>30.28000068664551</v>
       </c>
       <c r="G2">
-        <v>70.55000305175781</v>
+        <v>27.51000022888184</v>
       </c>
       <c r="H2">
-        <v>201104117</v>
+        <v>260676335</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K2">
         <v>2522131000</v>
@@ -753,22 +696,22 @@
         <v>44104</v>
       </c>
       <c r="D3">
-        <v>142.1999969482422</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="E3">
-        <v>135.75</v>
+        <v>29.65999984741211</v>
       </c>
       <c r="F3">
-        <v>158.7359924316406</v>
+        <v>30.28000068664551</v>
       </c>
       <c r="G3">
-        <v>133.8099975585938</v>
+        <v>27.51000022888184</v>
       </c>
       <c r="H3">
-        <v>158300823</v>
+        <v>260676335</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P3">
         <v>327243000</v>
@@ -830,22 +773,22 @@
         <v>44196</v>
       </c>
       <c r="D4">
-        <v>29.91399955749512</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="E4">
-        <v>28.95000076293945</v>
+        <v>29.65999984741211</v>
       </c>
       <c r="F4">
-        <v>31.0620002746582</v>
+        <v>30.28000068664551</v>
       </c>
       <c r="G4">
-        <v>27.46199989318848</v>
+        <v>27.51000022888184</v>
       </c>
       <c r="H4">
-        <v>766266033</v>
+        <v>260676335</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>2514233000</v>
@@ -919,22 +862,22 @@
         <v>44286</v>
       </c>
       <c r="D5">
-        <v>529.9299926757812</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="E5">
-        <v>513.469970703125</v>
+        <v>29.65999984741211</v>
       </c>
       <c r="F5">
-        <v>563.5599975585938</v>
+        <v>30.28000068664551</v>
       </c>
       <c r="G5">
-        <v>499</v>
+        <v>27.51000022888184</v>
       </c>
       <c r="H5">
-        <v>424926346</v>
+        <v>260676335</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P5">
         <v>333713000</v>
@@ -996,22 +939,22 @@
         <v>44377</v>
       </c>
       <c r="D6">
-        <v>46.47724219552952</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="E6">
-        <v>48.50979995727539</v>
+        <v>29.65999984741211</v>
       </c>
       <c r="F6">
-        <v>48.75511095753174</v>
+        <v>30.28000068664551</v>
       </c>
       <c r="G6">
-        <v>45.85521015250949</v>
+        <v>27.51000022888184</v>
       </c>
       <c r="H6">
-        <v>3953196953</v>
+        <v>260676335</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>2423932000</v>
@@ -1091,22 +1034,22 @@
         <v>44469</v>
       </c>
       <c r="D7">
-        <v>138.916410444292</v>
+        <v>27.54999923706055</v>
       </c>
       <c r="E7">
-        <v>146.6503143310547</v>
+        <v>29.65999984741211</v>
       </c>
       <c r="F7">
-        <v>149.9494520691154</v>
+        <v>30.28000068664551</v>
       </c>
       <c r="G7">
-        <v>135.3627448332334</v>
+        <v>27.51000022888184</v>
       </c>
       <c r="H7">
-        <v>14840390000</v>
+        <v>260676335</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>2385842000</v>
@@ -1189,22 +1132,22 @@
         <v>44561</v>
       </c>
       <c r="D8">
-        <v>17.05999946594238</v>
+        <v>37.04999923706055</v>
       </c>
       <c r="E8">
-        <v>15.57999992370606</v>
+        <v>27.92000007629395</v>
       </c>
       <c r="F8">
-        <v>19.65999984741211</v>
+        <v>37.7599983215332</v>
       </c>
       <c r="G8">
-        <v>13.14000034332275</v>
+        <v>24.29999923706055</v>
       </c>
       <c r="H8">
-        <v>250599325</v>
+        <v>260676335</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>10287829935</v>
@@ -1305,22 +1248,22 @@
         <v>44651</v>
       </c>
       <c r="D9">
-        <v>151.2200012207031</v>
+        <v>19.84000015258789</v>
       </c>
       <c r="E9">
-        <v>119.3099975585938</v>
+        <v>19.45999908447266</v>
       </c>
       <c r="F9">
-        <v>161.6100006103516</v>
+        <v>22.85000038146973</v>
       </c>
       <c r="G9">
-        <v>118.879997253418</v>
+        <v>18.5</v>
       </c>
       <c r="H9">
-        <v>168459019</v>
+        <v>260676335</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>5523168362</v>
@@ -1421,22 +1364,22 @@
         <v>44742</v>
       </c>
       <c r="D10">
-        <v>3.200000047683716</v>
+        <v>20.76000022888184</v>
       </c>
       <c r="E10">
-        <v>3.930000066757202</v>
+        <v>22.89999961853028</v>
       </c>
       <c r="F10">
-        <v>4.539999961853027</v>
+        <v>22.98999977111816</v>
       </c>
       <c r="G10">
-        <v>3.109999895095825</v>
+        <v>19.10000038146973</v>
       </c>
       <c r="H10">
-        <v>448228270</v>
+        <v>260676335</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>5815991328</v>
@@ -1537,22 +1480,22 @@
         <v>44834</v>
       </c>
       <c r="D11">
-        <v>254.5</v>
+        <v>20.32999992370605</v>
       </c>
       <c r="E11">
-        <v>227.5399932861328</v>
+        <v>19.36000061035156</v>
       </c>
       <c r="F11">
-        <v>257.5</v>
+        <v>21.8799991607666</v>
       </c>
       <c r="G11">
-        <v>198.5899963378907</v>
+        <v>17.54999923706055</v>
       </c>
       <c r="H11">
-        <v>3325150886</v>
+        <v>260676335</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>5641576971</v>
@@ -1653,22 +1596,22 @@
         <v>44926</v>
       </c>
       <c r="D12">
-        <v>26.71999931335449</v>
+        <v>15.52999973297119</v>
       </c>
       <c r="E12">
-        <v>28.72999954223633</v>
+        <v>17.79999923706055</v>
       </c>
       <c r="F12">
-        <v>29.72999954223633</v>
+        <v>18.25</v>
       </c>
       <c r="G12">
-        <v>26.64999961853028</v>
+        <v>14.96000003814697</v>
       </c>
       <c r="H12">
-        <v>178998669</v>
+        <v>260676335</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>4610772213</v>
@@ -1769,22 +1712,22 @@
         <v>45016</v>
       </c>
       <c r="D13">
-        <v>261.1884929516806</v>
+        <v>16.42000007629395</v>
       </c>
       <c r="E13">
-        <v>225.4617156982422</v>
+        <v>15.46000003814697</v>
       </c>
       <c r="F13">
-        <v>262.5264343168398</v>
+        <v>16.82500076293945</v>
       </c>
       <c r="G13">
-        <v>223.9783523558658</v>
+        <v>14.9399995803833</v>
       </c>
       <c r="H13">
-        <v>60498713</v>
+        <v>260676335</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>4657511653</v>
@@ -2001,22 +1944,22 @@
         <v>45199</v>
       </c>
       <c r="D15">
-        <v>62.6169871617784</v>
+        <v>21.02000045776367</v>
       </c>
       <c r="E15">
-        <v>64.67326354980469</v>
+        <v>19.18000030517578</v>
       </c>
       <c r="F15">
-        <v>66.63478202323152</v>
+        <v>21.98999977111816</v>
       </c>
       <c r="G15">
-        <v>60.75970456328059</v>
+        <v>18.70999908447266</v>
       </c>
       <c r="H15">
-        <v>212968277</v>
+        <v>260676335</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>6068145988</v>
@@ -2117,22 +2060,22 @@
         <v>45291</v>
       </c>
       <c r="D16">
-        <v>1152.400024414062</v>
+        <v>27.86000061035156</v>
       </c>
       <c r="E16">
-        <v>1198.829956054688</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>1307.140014648438</v>
+        <v>31.64999961853028</v>
       </c>
       <c r="G16">
-        <v>1113.18994140625</v>
+        <v>25.73999977111816</v>
       </c>
       <c r="H16">
-        <v>24003656</v>
+        <v>260676335</v>
       </c>
       <c r="I16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>8265092776</v>
@@ -2233,22 +2176,22 @@
         <v>45382</v>
       </c>
       <c r="D17">
-        <v>104.6600036621094</v>
+        <v>34.95000076293945</v>
       </c>
       <c r="E17">
-        <v>92.98000335693359</v>
+        <v>30.96999931335449</v>
       </c>
       <c r="F17">
-        <v>105.0100021362305</v>
+        <v>39.79999923706055</v>
       </c>
       <c r="G17">
-        <v>90.66999816894533</v>
+        <v>30.06999969482422</v>
       </c>
       <c r="H17">
-        <v>168459019</v>
+        <v>260676335</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>10327804900</v>
@@ -2349,22 +2292,22 @@
         <v>45473</v>
       </c>
       <c r="D18">
-        <v>53.97000122070312</v>
+        <v>30.88999938964844</v>
       </c>
       <c r="E18">
-        <v>52.63999938964844</v>
+        <v>23.94000053405762</v>
       </c>
       <c r="F18">
-        <v>65.87999725341797</v>
+        <v>31.64999961853028</v>
       </c>
       <c r="G18">
-        <v>50.29000091552734</v>
+        <v>23.54999923706055</v>
       </c>
       <c r="H18">
-        <v>42689006</v>
+        <v>260676335</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>9252693041</v>
@@ -2465,22 +2408,22 @@
         <v>45565</v>
       </c>
       <c r="D19">
-        <v>36.50313191135645</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="E19">
-        <v>39.63111877441406</v>
+        <v>27.29999923706055</v>
       </c>
       <c r="F19">
-        <v>41.15769383693995</v>
+        <v>28.13999938964844</v>
       </c>
       <c r="G19">
-        <v>34.26814654717644</v>
+        <v>23.81500053405762</v>
       </c>
       <c r="H19">
-        <v>171080665</v>
+        <v>260676335</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>7658276078</v>
@@ -2581,22 +2524,22 @@
         <v>45657</v>
       </c>
       <c r="D20">
-        <v>12.96000003814697</v>
+        <v>26.29999923706055</v>
       </c>
       <c r="E20">
-        <v>14.22000026702881</v>
+        <v>25.68000030517578</v>
       </c>
       <c r="F20">
-        <v>15.34500026702881</v>
+        <v>27</v>
       </c>
       <c r="G20">
-        <v>12.61999988555908</v>
+        <v>24.11000061035156</v>
       </c>
       <c r="H20">
-        <v>453568899</v>
+        <v>260676335</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>7918252657</v>
@@ -2709,22 +2652,22 @@
         <v>45747</v>
       </c>
       <c r="D21">
-        <v>187.8600006103516</v>
+        <v>17.53000068664551</v>
       </c>
       <c r="E21">
-        <v>184.4199981689453</v>
+        <v>18.82999992370605</v>
       </c>
       <c r="F21">
-        <v>198.3399963378907</v>
+        <v>19.19599914550781</v>
       </c>
       <c r="G21">
-        <v>161.3800048828125</v>
+        <v>15.64999961853027</v>
       </c>
       <c r="H21">
-        <v>10664912097</v>
+        <v>260676335</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>5280353353</v>
@@ -2828,22 +2771,22 @@
         <v>45838</v>
       </c>
       <c r="D22">
-        <v>105.0804770925983</v>
+        <v>24.30999946594238</v>
       </c>
       <c r="E22">
-        <v>103.1780242919922</v>
+        <v>24.70000076293945</v>
       </c>
       <c r="F22">
-        <v>109.3114367486601</v>
+        <v>24.7450008392334</v>
       </c>
       <c r="G22">
-        <v>101.4440230697358</v>
+        <v>24.20499992370605</v>
       </c>
       <c r="H22">
-        <v>199618386</v>
+        <v>260676335</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>7346981811</v>
